--- a/notebooks/KCNH5/input/KCNH5_individuals.xlsx
+++ b/notebooks/KCNH5/input/KCNH5_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/KCNH5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E49DB73-A874-7446-A48F-7753ECE1E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EAFC3D-E7C3-7F45-A0DA-BDAC69D16880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="7060" windowWidth="31760" windowHeight="15620" xr2:uid="{45E55A33-1588-1E41-81DA-A7FF20380253}"/>
   </bookViews>
@@ -853,7 +853,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AM23" sqref="AM23"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notebooks/KCNH5/input/KCNH5_individuals.xlsx
+++ b/notebooks/KCNH5/input/KCNH5_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/KCNH5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EAFC3D-E7C3-7F45-A0DA-BDAC69D16880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E8BCD-36D2-4E48-860C-6F9AC74BB8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="7060" windowWidth="31760" windowHeight="15620" xr2:uid="{45E55A33-1588-1E41-81DA-A7FF20380253}"/>
+    <workbookView xWindow="900" yWindow="5560" windowWidth="31760" windowHeight="15620" xr2:uid="{45E55A33-1588-1E41-81DA-A7FF20380253}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="155">
   <si>
     <t>PMID</t>
   </si>
@@ -483,13 +483,31 @@
   </si>
   <si>
     <t>HP:0002188</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>HGNC:6254</t>
+  </si>
+  <si>
+    <t>KCNH5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +524,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,9 +564,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,9 +587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -592,7 +627,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -698,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,7 +875,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,20 +883,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7B6FDB-6CC9-EC40-8E8C-B97EF72992F4}">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="28" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -880,109 +915,115 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>71</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>143</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>147</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -991,115 +1032,121 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>83</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>104</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>133</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>72</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>146</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>148</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1116,40 +1163,40 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
         <v>18</v>
@@ -1158,16 +1205,16 @@
         <v>18</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s">
         <v>55</v>
@@ -1179,19 +1226,19 @@
         <v>55</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" t="s">
-        <v>32</v>
-      </c>
       <c r="AF3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="s">
         <v>41</v>
@@ -1200,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="AJ3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s">
         <v>18</v>
@@ -1209,10 +1256,16 @@
         <v>18</v>
       </c>
       <c r="AM3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1229,40 +1282,40 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
         <v>18</v>
@@ -1271,10 +1324,10 @@
         <v>18</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="W4" t="s">
         <v>55</v>
@@ -1292,19 +1345,19 @@
         <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="s">
         <v>55</v>
@@ -1313,19 +1366,25 @@
         <v>32</v>
       </c>
       <c r="AJ4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="s">
         <v>18</v>
       </c>
       <c r="AM4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1342,37 +1401,37 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
         <v>18</v>
@@ -1381,10 +1440,10 @@
         <v>18</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="W5" t="s">
         <v>55</v>
@@ -1402,40 +1461,46 @@
         <v>55</v>
       </c>
       <c r="AB5" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>55</v>
       </c>
       <c r="AD5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="s">
         <v>18</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="s">
         <v>18</v>
       </c>
       <c r="AK5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="s">
         <v>18</v>
       </c>
       <c r="AM5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1452,37 +1517,37 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
         <v>18</v>
@@ -1491,16 +1556,16 @@
         <v>18</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -1509,17 +1574,17 @@
         <v>55</v>
       </c>
       <c r="AA6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
       </c>
       <c r="AD6" t="s">
         <v>18</v>
       </c>
-      <c r="AE6" t="s">
-        <v>18</v>
-      </c>
       <c r="AF6" t="s">
         <v>18</v>
       </c>
@@ -1530,19 +1595,25 @@
         <v>18</v>
       </c>
       <c r="AI6" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="s">
         <v>18</v>
       </c>
       <c r="AK6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="s">
         <v>18</v>
       </c>
+      <c r="AM6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1559,37 +1630,37 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>66</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
@@ -1598,10 +1669,10 @@
         <v>18</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="W7" t="s">
         <v>55</v>
@@ -1610,22 +1681,22 @@
         <v>55</v>
       </c>
       <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>55</v>
-      </c>
       <c r="AB7" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>55</v>
       </c>
       <c r="AD7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="s">
         <v>55</v>
@@ -1640,16 +1711,22 @@
         <v>55</v>
       </c>
       <c r="AJ7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="s">
         <v>18</v>
       </c>
+      <c r="AM7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1666,44 +1743,44 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>64</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
         <v>81</v>
       </c>
-      <c r="R8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
       <c r="T8" t="s">
         <v>55</v>
       </c>
@@ -1714,49 +1791,55 @@
         <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X8" t="s">
         <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="s">
         <v>55</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s">
         <v>32</v>
       </c>
       <c r="AD8" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>32</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="s">
         <v>18</v>
       </c>
       <c r="AH8" t="s">
         <v>55</v>
       </c>
+      <c r="AI8" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ8" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" t="s">
-        <v>55</v>
-      </c>
       <c r="AL8" t="s">
         <v>55</v>
       </c>
+      <c r="AM8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1773,43 +1856,43 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
       <c r="R9" t="s">
         <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s">
         <v>55</v>
@@ -1821,13 +1904,13 @@
         <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X9" t="s">
         <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="s">
         <v>55</v>
@@ -1836,34 +1919,40 @@
         <v>55</v>
       </c>
       <c r="AB9" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>55</v>
       </c>
       <c r="AD9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>18</v>
       </c>
       <c r="AG9" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" t="s">
-        <v>55</v>
+      <c r="AH9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>32</v>
       </c>
       <c r="AJ9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="s">
         <v>18</v>
       </c>
+      <c r="AM9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1880,43 +1969,43 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>96</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>95</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>27</v>
       </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
         <v>55</v>
@@ -1928,13 +2017,13 @@
         <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
         <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="s">
         <v>55</v>
@@ -1943,37 +2032,43 @@
         <v>55</v>
       </c>
       <c r="AB10" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>55</v>
       </c>
       <c r="AD10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ10" t="s">
         <v>55</v>
       </c>
-      <c r="AK10" t="s">
-        <v>55</v>
-      </c>
       <c r="AL10" t="s">
         <v>55</v>
       </c>
       <c r="AM10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1990,61 +2085,61 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
         <v>45</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>56</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>69</v>
       </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
         <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
         <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
         <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X11" t="s">
         <v>55</v>
       </c>
       <c r="Y11" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="s">
         <v>55</v>
@@ -2053,31 +2148,37 @@
         <v>55</v>
       </c>
       <c r="AB11" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>55</v>
       </c>
       <c r="AD11" t="s">
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG11" t="s">
         <v>18</v>
       </c>
       <c r="AH11" t="s">
         <v>55</v>
       </c>
+      <c r="AI11" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ11" t="s">
         <v>55</v>
       </c>
-      <c r="AK11" t="s">
-        <v>55</v>
-      </c>
       <c r="AL11" t="s">
         <v>55</v>
       </c>
+      <c r="AM11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2094,43 +2195,43 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
         <v>45</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>95</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s">
         <v>55</v>
@@ -2139,16 +2240,16 @@
         <v>55</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
         <v>25</v>
       </c>
-      <c r="W12" t="s">
-        <v>18</v>
-      </c>
-      <c r="X12" t="s">
-        <v>55</v>
-      </c>
       <c r="Y12" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="s">
         <v>55</v>
@@ -2157,16 +2258,16 @@
         <v>55</v>
       </c>
       <c r="AB12" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>55</v>
       </c>
       <c r="AD12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="s">
         <v>32</v>
       </c>
       <c r="AF12" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="s">
         <v>32</v>
@@ -2174,17 +2275,23 @@
       <c r="AH12" t="s">
         <v>55</v>
       </c>
+      <c r="AI12" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="s">
         <v>18</v>
       </c>
+      <c r="AM12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2201,43 +2308,43 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>65</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>102</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>69</v>
       </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="T13" t="s">
         <v>55</v>
@@ -2249,13 +2356,13 @@
         <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X13" t="s">
         <v>55</v>
       </c>
       <c r="Y13" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="s">
         <v>55</v>
@@ -2264,16 +2371,16 @@
         <v>55</v>
       </c>
       <c r="AB13" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>55</v>
       </c>
       <c r="AD13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE13" t="s">
         <v>32</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="s">
         <v>32</v>
@@ -2281,17 +2388,23 @@
       <c r="AH13" t="s">
         <v>55</v>
       </c>
+      <c r="AI13" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ13" t="s">
         <v>55</v>
       </c>
-      <c r="AK13" t="s">
-        <v>55</v>
-      </c>
       <c r="AL13" t="s">
         <v>55</v>
       </c>
+      <c r="AM13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2308,47 +2421,47 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
         <v>45</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>110</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>107</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>27</v>
       </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" t="s">
         <v>110</v>
       </c>
-      <c r="S14" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" t="s">
-        <v>55</v>
-      </c>
       <c r="U14" t="s">
         <v>55</v>
       </c>
@@ -2356,31 +2469,31 @@
         <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="s">
         <v>32</v>
       </c>
       <c r="AA14" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="s">
         <v>32</v>
       </c>
+      <c r="AC14" t="s">
+        <v>55</v>
+      </c>
       <c r="AD14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE14" t="s">
         <v>32</v>
       </c>
       <c r="AF14" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="s">
         <v>32</v>
@@ -2388,17 +2501,23 @@
       <c r="AH14" t="s">
         <v>55</v>
       </c>
+      <c r="AI14" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ14" t="s">
         <v>55</v>
       </c>
-      <c r="AK14" t="s">
-        <v>55</v>
-      </c>
       <c r="AL14" t="s">
         <v>55</v>
       </c>
+      <c r="AM14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2415,46 +2534,46 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>44</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
         <v>45</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>112</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>113</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>69</v>
       </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
         <v>112</v>
       </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" t="s">
-        <v>55</v>
-      </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
         <v>55</v>
@@ -2463,13 +2582,13 @@
         <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X15" t="s">
         <v>55</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="s">
         <v>55</v>
@@ -2478,16 +2597,16 @@
         <v>55</v>
       </c>
       <c r="AB15" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>55</v>
       </c>
       <c r="AD15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE15" t="s">
         <v>32</v>
       </c>
       <c r="AF15" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="s">
         <v>32</v>
@@ -2495,17 +2614,23 @@
       <c r="AH15" t="s">
         <v>55</v>
       </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ15" t="s">
         <v>55</v>
       </c>
-      <c r="AK15" t="s">
-        <v>55</v>
-      </c>
       <c r="AL15" t="s">
         <v>55</v>
       </c>
+      <c r="AM15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2522,37 +2647,37 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>44</v>
       </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>65</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>115</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>69</v>
       </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
         <v>55</v>
@@ -2570,13 +2695,13 @@
         <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X16" t="s">
         <v>55</v>
       </c>
       <c r="Y16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="s">
         <v>55</v>
@@ -2585,34 +2710,40 @@
         <v>55</v>
       </c>
       <c r="AB16" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>55</v>
       </c>
       <c r="AD16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE16" t="s">
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="s">
         <v>55</v>
       </c>
+      <c r="AI16" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ16" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" t="s">
-        <v>55</v>
-      </c>
       <c r="AL16" t="s">
         <v>55</v>
       </c>
+      <c r="AM16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2629,37 +2760,37 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
         <v>45</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>56</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>117</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>27</v>
       </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R17" t="s">
         <v>55</v>
@@ -2677,13 +2808,13 @@
         <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X17" t="s">
         <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="s">
         <v>55</v>
@@ -2692,34 +2823,40 @@
         <v>55</v>
       </c>
       <c r="AB17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AD17" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="s">
         <v>55</v>
       </c>
+      <c r="AI17" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ17" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" t="s">
-        <v>55</v>
-      </c>
       <c r="AL17" t="s">
         <v>55</v>
       </c>
+      <c r="AM17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2736,47 +2873,47 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>119</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
         <v>120</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>63</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>121</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>69</v>
       </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" t="s">
         <v>63</v>
       </c>
-      <c r="S18" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" t="s">
-        <v>55</v>
-      </c>
       <c r="U18" t="s">
         <v>55</v>
       </c>
@@ -2784,13 +2921,13 @@
         <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X18" t="s">
         <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="s">
         <v>55</v>
@@ -2798,35 +2935,41 @@
       <c r="AA18" t="s">
         <v>55</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" t="s">
         <v>55</v>
       </c>
       <c r="AC18" t="s">
         <v>55</v>
       </c>
-      <c r="AD18" t="s">
-        <v>18</v>
+      <c r="AD18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>55</v>
       </c>
       <c r="AF18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG18" t="s">
         <v>18</v>
       </c>
       <c r="AH18" t="s">
         <v>55</v>
       </c>
+      <c r="AI18" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ18" t="s">
         <v>55</v>
       </c>
-      <c r="AK18" t="s">
-        <v>55</v>
-      </c>
       <c r="AL18" t="s">
         <v>55</v>
       </c>
+      <c r="AM18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -2843,38 +2986,38 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>119</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
         <v>120</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>123</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>124</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
         <v>123</v>
       </c>
-      <c r="P19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>55</v>
-      </c>
       <c r="R19" t="s">
         <v>55</v>
       </c>
@@ -2891,13 +3034,13 @@
         <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X19" t="s">
         <v>55</v>
       </c>
       <c r="Y19" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="s">
         <v>55</v>
@@ -2906,34 +3049,40 @@
         <v>55</v>
       </c>
       <c r="AB19" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>55</v>
       </c>
       <c r="AD19" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" t="s">
-        <v>32</v>
-      </c>
       <c r="AF19" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AH19" t="s">
         <v>55</v>
       </c>
+      <c r="AI19" t="s">
+        <v>55</v>
+      </c>
       <c r="AJ19" t="s">
         <v>55</v>
       </c>
-      <c r="AK19" t="s">
-        <v>55</v>
-      </c>
       <c r="AL19" t="s">
         <v>55</v>
       </c>
+      <c r="AM19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -2950,47 +3099,47 @@
         <v>23</v>
       </c>
       <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>119</v>
       </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
         <v>120</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>110</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>102</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
-        <v>18</v>
-      </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" t="s">
         <v>110</v>
       </c>
-      <c r="S20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20" t="s">
-        <v>55</v>
-      </c>
       <c r="U20" t="s">
         <v>55</v>
       </c>
@@ -2998,13 +3147,13 @@
         <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X20" t="s">
         <v>55</v>
       </c>
       <c r="Y20" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="s">
         <v>55</v>
@@ -3016,34 +3165,40 @@
         <v>55</v>
       </c>
       <c r="AC20" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AD20" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="s">
         <v>32</v>
       </c>
       <c r="AF20" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AH20" t="s">
         <v>55</v>
       </c>
+      <c r="AI20" t="s">
+        <v>55</v>
+      </c>
       <c r="AJ20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK20" t="s">
         <v>55</v>
       </c>
       <c r="AL20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3060,37 +3215,37 @@
         <v>23</v>
       </c>
       <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>119</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
         <v>120</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>112</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>127</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>69</v>
       </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
         <v>55</v>
@@ -3108,16 +3263,16 @@
         <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="s">
         <v>55</v>
@@ -3125,26 +3280,32 @@
       <c r="AB21" t="s">
         <v>55</v>
       </c>
+      <c r="AC21" t="s">
+        <v>55</v>
+      </c>
       <c r="AD21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>18</v>
       </c>
       <c r="AJ21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="s">
         <v>55</v>
       </c>
+      <c r="AM21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3161,37 +3322,37 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>129</v>
       </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
         <v>130</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>81</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>131</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>69</v>
       </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
         <v>55</v>
@@ -3200,58 +3361,64 @@
         <v>55</v>
       </c>
       <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
         <v>81</v>
       </c>
-      <c r="U22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" t="s">
-        <v>55</v>
-      </c>
       <c r="W22" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC22" t="s">
         <v>32</v>
       </c>
       <c r="AD22" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>32</v>
       </c>
       <c r="AF22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG22" t="s">
         <v>18</v>
       </c>
       <c r="AH22" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>18</v>
       </c>
       <c r="AJ22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK22" t="s">
         <v>32</v>
       </c>
       <c r="AL22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3268,37 +3435,37 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>135</v>
       </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
         <v>136</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>137</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>107</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>69</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
         <v>55</v>
@@ -3307,58 +3474,64 @@
         <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="W23" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC23" t="s">
         <v>32</v>
       </c>
       <c r="AD23" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>32</v>
       </c>
       <c r="AF23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI23" t="s">
         <v>32</v>
       </c>
       <c r="AJ23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK23" t="s">
         <v>32</v>
       </c>
       <c r="AL23" t="s">
         <v>55</v>
       </c>
+      <c r="AM23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3375,46 +3548,46 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" t="s">
         <v>24</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>139</v>
       </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
         <v>140</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>141</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>142</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>69</v>
       </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
         <v>141</v>
       </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>55</v>
-      </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
         <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
@@ -3423,13 +3596,13 @@
         <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="X24" t="s">
         <v>55</v>
       </c>
       <c r="Y24" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="s">
         <v>55</v>
@@ -3438,30 +3611,36 @@
         <v>55</v>
       </c>
       <c r="AB24" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AC24" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AD24" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="s">
         <v>55</v>
       </c>
+      <c r="AI24" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ24" t="s">
         <v>55</v>
       </c>
-      <c r="AK24" t="s">
-        <v>55</v>
-      </c>
       <c r="AL24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN24" t="s">
         <v>55</v>
       </c>
     </row>

--- a/notebooks/KCNH5/input/KCNH5_individuals.xlsx
+++ b/notebooks/KCNH5/input/KCNH5_individuals.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/KCNH5/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/KCNH5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E8BCD-36D2-4E48-860C-6F9AC74BB8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68F4B3-741A-C941-B701-FD974263CAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="5560" windowWidth="31760" windowHeight="15620" xr2:uid="{45E55A33-1588-1E41-81DA-A7FF20380253}"/>
+    <workbookView xWindow="2160" yWindow="3680" windowWidth="36240" windowHeight="13080" xr2:uid="{45E55A33-1588-1E41-81DA-A7FF20380253}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="173">
   <si>
     <t>PMID</t>
   </si>
@@ -191,9 +191,6 @@
     <t>HP:0001249</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>Macroglossia</t>
   </si>
   <si>
@@ -501,13 +498,70 @@
   </si>
   <si>
     <t>KCNH5</t>
+  </si>
+  <si>
+    <t>PMID:38708366</t>
+  </si>
+  <si>
+    <t>Clinical phenotypes of developmental and epileptic encephalopathy-related recurrent KCNH5 missense variant p.R327H in Chinese children</t>
+  </si>
+  <si>
+    <t>NP_647479.2:p.(R327H)</t>
+  </si>
+  <si>
+    <t>P7Y6M</t>
+  </si>
+  <si>
+    <t>P15Y7M</t>
+  </si>
+  <si>
+    <t>P14Y8M</t>
+  </si>
+  <si>
+    <t>P2Y2M</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>P7M20D</t>
+  </si>
+  <si>
+    <t>EEG abnormality</t>
+  </si>
+  <si>
+    <t>HP:0002353</t>
+  </si>
+  <si>
+    <t>HP:0000729</t>
+  </si>
+  <si>
+    <t>HP:0007018</t>
+  </si>
+  <si>
+    <t>HP:0000158</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
+  </si>
+  <si>
+    <t>Patient 3</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Patient 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +597,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF212121"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -564,11 +624,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,20 +944,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7B6FDB-6CC9-EC40-8E8C-B97EF72992F4}">
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:H24"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="28" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="40" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -949,46 +1011,46 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W1" t="s">
         <v>30</v>
       </c>
       <c r="X1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD1" t="s">
         <v>33</v>
       </c>
       <c r="AE1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF1" t="s">
         <v>35</v>
@@ -1006,24 +1068,33 @@
         <v>42</v>
       </c>
       <c r="AK1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1032,16 +1103,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
@@ -1074,46 +1145,46 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W2" t="s">
         <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD2" t="s">
         <v>34</v>
       </c>
       <c r="AE2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF2" t="s">
         <v>36</v>
@@ -1131,22 +1202,31 @@
         <v>43</v>
       </c>
       <c r="AK2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM2" t="s">
         <v>145</v>
       </c>
-      <c r="AM2" t="s">
-        <v>146</v>
-      </c>
       <c r="AN2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO2" t="s">
-        <v>51</v>
+        <v>164</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1163,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>154</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1196,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
         <v>18</v>
@@ -1217,19 +1297,19 @@
         <v>32</v>
       </c>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s">
         <v>32</v>
@@ -1262,10 +1342,16 @@
         <v>18</v>
       </c>
       <c r="AO3" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1282,10 +1368,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
         <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -1300,10 +1386,10 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -1315,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
         <v>18</v>
@@ -1330,25 +1416,25 @@
         <v>18</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD4" t="s">
         <v>32</v>
@@ -1360,13 +1446,13 @@
         <v>18</v>
       </c>
       <c r="AH4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI4" t="s">
         <v>32</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK4" t="s">
         <v>32</v>
@@ -1380,19 +1466,19 @@
       <c r="AN4" t="s">
         <v>18</v>
       </c>
-      <c r="AO4" t="s">
-        <v>52</v>
+      <c r="AR4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1401,10 +1487,10 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
         <v>153</v>
-      </c>
-      <c r="H5" t="s">
-        <v>154</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -1416,10 +1502,10 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
         <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -1428,10 +1514,10 @@
         <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" t="s">
         <v>18</v>
@@ -1446,31 +1532,31 @@
         <v>18</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" t="s">
         <v>18</v>
       </c>
       <c r="AF5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG5" t="s">
         <v>32</v>
@@ -1485,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="AK5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL5" t="s">
         <v>18</v>
@@ -1497,18 +1583,24 @@
         <v>18</v>
       </c>
       <c r="AO5" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1517,16 +1609,16 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
         <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>154</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -1535,19 +1627,19 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
         <v>18</v>
@@ -1562,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
         <v>32</v>
@@ -1571,16 +1663,16 @@
         <v>32</v>
       </c>
       <c r="Z6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA6" t="s">
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s">
         <v>18</v>
@@ -1601,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL6" t="s">
         <v>18</v>
@@ -1612,16 +1704,25 @@
       <c r="AN6" t="s">
         <v>18</v>
       </c>
+      <c r="AO6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1630,25 +1731,25 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
         <v>153</v>
-      </c>
-      <c r="H7" t="s">
-        <v>154</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
         <v>65</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -1657,10 +1758,10 @@
         <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
@@ -1675,46 +1776,46 @@
         <v>18</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s">
         <v>18</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL7" t="s">
         <v>18</v>
@@ -1725,16 +1826,25 @@
       <c r="AN7" t="s">
         <v>18</v>
       </c>
+      <c r="AO7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1743,28 +1853,28 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
         <v>153</v>
-      </c>
-      <c r="H8" t="s">
-        <v>154</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>80</v>
       </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
@@ -1779,34 +1889,34 @@
         <v>32</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y8" t="s">
         <v>18</v>
       </c>
       <c r="Z8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC8" t="s">
         <v>32</v>
@@ -1821,33 +1931,42 @@
         <v>18</v>
       </c>
       <c r="AH8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI8" t="s">
         <v>18</v>
       </c>
       <c r="AJ8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN8" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1856,10 +1975,10 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
         <v>153</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1889,40 +2008,40 @@
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y9" t="s">
         <v>18</v>
       </c>
       <c r="Z9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD9" t="s">
         <v>32</v>
@@ -1940,7 +2059,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL9" t="s">
         <v>18</v>
@@ -1951,16 +2070,25 @@
       <c r="AN9" t="s">
         <v>18</v>
       </c>
+      <c r="AO9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1969,10 +2097,10 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
         <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>154</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1987,10 +2115,10 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>27</v>
@@ -2008,34 +2136,34 @@
         <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y10" t="s">
         <v>18</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD10" t="s">
         <v>32</v>
@@ -2053,30 +2181,36 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2085,10 +2219,10 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" t="s">
         <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
@@ -2106,10 +2240,10 @@
         <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
         <v>18</v>
@@ -2118,40 +2252,40 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
         <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y11" t="s">
         <v>18</v>
       </c>
       <c r="Z11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD11" t="s">
         <v>18</v>
@@ -2160,33 +2294,42 @@
         <v>18</v>
       </c>
       <c r="AH11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI11" t="s">
         <v>18</v>
       </c>
       <c r="AJ11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN11" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2195,10 +2338,10 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
         <v>153</v>
-      </c>
-      <c r="H12" t="s">
-        <v>154</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -2216,10 +2359,10 @@
         <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
@@ -2234,16 +2377,16 @@
         <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X12" t="s">
         <v>25</v>
@@ -2252,16 +2395,16 @@
         <v>18</v>
       </c>
       <c r="Z12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD12" t="s">
         <v>32</v>
@@ -2273,13 +2416,13 @@
         <v>32</v>
       </c>
       <c r="AH12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI12" t="s">
         <v>32</v>
       </c>
       <c r="AJ12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL12" t="s">
         <v>18</v>
@@ -2290,16 +2433,25 @@
       <c r="AN12" t="s">
         <v>18</v>
       </c>
+      <c r="AO12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -2308,10 +2460,10 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" t="s">
         <v>153</v>
-      </c>
-      <c r="H13" t="s">
-        <v>154</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -2326,13 +2478,13 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s">
         <v>18</v>
@@ -2347,34 +2499,34 @@
         <v>32</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y13" t="s">
         <v>18</v>
       </c>
       <c r="Z13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD13" t="s">
         <v>32</v>
@@ -2386,33 +2538,42 @@
         <v>32</v>
       </c>
       <c r="AH13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI13" t="s">
         <v>32</v>
       </c>
       <c r="AJ13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -2421,10 +2582,10 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" t="s">
         <v>153</v>
-      </c>
-      <c r="H14" t="s">
-        <v>154</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
@@ -2439,10 +2600,10 @@
         <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
@@ -2454,78 +2615,87 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
         <v>110</v>
-      </c>
-      <c r="U14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -2534,10 +2704,10 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
         <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>154</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -2552,93 +2722,102 @@
         <v>45</v>
       </c>
       <c r="M15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" t="s">
         <v>112</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
         <v>113</v>
-      </c>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" t="s">
-        <v>112</v>
-      </c>
-      <c r="T15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2647,10 +2826,10 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
         <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>154</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -2665,93 +2844,102 @@
         <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>115</v>
-      </c>
-      <c r="O16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2760,10 +2948,10 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
         <v>153</v>
-      </c>
-      <c r="H17" t="s">
-        <v>154</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -2778,10 +2966,10 @@
         <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17" t="s">
         <v>27</v>
@@ -2793,40 +2981,40 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
       </c>
       <c r="Z17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD17" t="s">
         <v>32</v>
@@ -2838,33 +3026,42 @@
         <v>18</v>
       </c>
       <c r="AH17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI17" t="s">
         <v>32</v>
       </c>
       <c r="AJ17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN17" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2873,111 +3070,120 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" t="s">
         <v>153</v>
-      </c>
-      <c r="H18" t="s">
-        <v>154</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
         <v>119</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
         <v>120</v>
       </c>
-      <c r="M18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
         <v>121</v>
-      </c>
-      <c r="O18" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2986,111 +3192,120 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
         <v>153</v>
-      </c>
-      <c r="H19" t="s">
-        <v>154</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
         <v>119</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>120</v>
-      </c>
       <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" t="s">
         <v>123</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>124</v>
-      </c>
-      <c r="O19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>123</v>
-      </c>
-      <c r="R19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S19" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19" t="s">
-        <v>55</v>
-      </c>
-      <c r="U19" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" t="s">
-        <v>55</v>
-      </c>
-      <c r="X19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -3099,31 +3314,31 @@
         <v>23</v>
       </c>
       <c r="G20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
         <v>153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>154</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>120</v>
-      </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s">
         <v>18</v>
@@ -3135,40 +3350,40 @@
         <v>32</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
       </c>
       <c r="Z20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE20" t="s">
         <v>32</v>
@@ -3180,33 +3395,42 @@
         <v>32</v>
       </c>
       <c r="AH20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL20" t="s">
         <v>32</v>
       </c>
       <c r="AM20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN20" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -3215,105 +3439,114 @@
         <v>23</v>
       </c>
       <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
         <v>153</v>
-      </c>
-      <c r="H21" t="s">
-        <v>154</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
       </c>
       <c r="J21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
         <v>119</v>
       </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>120</v>
-      </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
         <v>127</v>
-      </c>
-      <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S21" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" t="s">
-        <v>55</v>
-      </c>
-      <c r="U21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -3322,31 +3555,31 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
         <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
         <v>129</v>
       </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" t="s">
         <v>130</v>
       </c>
-      <c r="M22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" t="s">
-        <v>131</v>
-      </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s">
         <v>18</v>
@@ -3355,25 +3588,25 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y22" t="s">
         <v>18</v>
@@ -3382,10 +3615,10 @@
         <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC22" t="s">
         <v>32</v>
@@ -3400,7 +3633,7 @@
         <v>18</v>
       </c>
       <c r="AH22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI22" t="s">
         <v>18</v>
@@ -3409,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="AL22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM22" t="s">
         <v>32</v>
@@ -3417,16 +3650,25 @@
       <c r="AN22" t="s">
         <v>32</v>
       </c>
+      <c r="AO22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -3435,111 +3677,120 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
         <v>153</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
         <v>135</v>
       </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>136</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>137</v>
-      </c>
-      <c r="N23" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" t="s">
-        <v>55</v>
-      </c>
-      <c r="U23" t="s">
-        <v>55</v>
-      </c>
-      <c r="V23" t="s">
-        <v>32</v>
-      </c>
-      <c r="W23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -3548,73 +3799,73 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" t="s">
         <v>153</v>
-      </c>
-      <c r="H24" t="s">
-        <v>154</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
       </c>
       <c r="J24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
         <v>139</v>
       </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>140</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>141</v>
       </c>
-      <c r="N24" t="s">
-        <v>142</v>
-      </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
         <v>18</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
         <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y24" t="s">
         <v>18</v>
       </c>
       <c r="Z24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD24" t="s">
         <v>32</v>
@@ -3626,22 +3877,449 @@
         <v>18</v>
       </c>
       <c r="AH24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI24" t="s">
         <v>32</v>
       </c>
       <c r="AJ24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN24" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
